--- a/SOO_simulations/DP1000_room_SwiftVoce_NDBR50_curve2/iteration/1/parameters.xlsx
+++ b/SOO_simulations/DP1000_room_SwiftVoce_NDBR50_curve2/iteration/1/parameters.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4554799321242512</v>
+        <v>0.7076181879016024</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1353.576788240812</v>
+        <v>1706.437154391188</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.02395108250445547</v>
+        <v>0.05584232263349315</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.07284401571775523</v>
+        <v>0.5243023045925966</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>983.5072222486721</v>
+        <v>1901.954069516758</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>631.1748180827316</v>
+        <v>483.7237885075176</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>959.3432379629738</v>
+        <v>97.28176850291779</v>
       </c>
     </row>
   </sheetData>
